--- a/src/generate-budget-plan/templates/TemplateCAPEX.xlsx
+++ b/src/generate-budget-plan/templates/TemplateCAPEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F597BDEB-7A6D-4965-898F-51F8CD3CBF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47FA6D-D155-4347-B2A4-E436C5C60516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,6 +1201,18 @@
     <xf numFmtId="165" fontId="6" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,6 +1255,36 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,53 +1303,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,10 +1626,10 @@
   <dimension ref="A1:BV3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU14" sqref="AU14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1770,160 +1770,160 @@
       <c r="BU1" s="15"/>
       <c r="BV1" s="18"/>
     </row>
-    <row r="2" spans="1:74" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:74" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="57" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="T2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="61" t="s">
+      <c r="U2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="63" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Z2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="48"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="52"/>
       <c r="AU2" s="20"/>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="49" t="s">
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="52"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="66"/>
     </row>
-    <row r="3" spans="1:74" s="68" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+    <row r="3" spans="1:74" s="36" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="62"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="58"/>
       <c r="V3" s="23" t="s">
         <v>32</v>
       </c>
@@ -1933,8 +1933,8 @@
       <c r="X3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="66"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="62"/>
       <c r="AA3" s="26" t="s">
         <v>35</v>
       </c>
@@ -1987,10 +1987,10 @@
       <c r="AR3" s="29">
         <v>45231</v>
       </c>
-      <c r="AS3" s="69">
+      <c r="AS3" s="37">
         <v>45261</v>
       </c>
-      <c r="AT3" s="70" t="s">
+      <c r="AT3" s="38" t="s">
         <v>41</v>
       </c>
       <c r="AU3" s="28"/>
@@ -2033,7 +2033,7 @@
       <c r="BH3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BI3" s="67"/>
+      <c r="BI3" s="35"/>
       <c r="BJ3" s="32">
         <v>45292</v>
       </c>

--- a/src/generate-budget-plan/templates/TemplateCAPEX.xlsx
+++ b/src/generate-budget-plan/templates/TemplateCAPEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47FA6D-D155-4347-B2A4-E436C5C60516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C007E8-53F1-4148-90D3-AFA74799A4C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -817,207 +817,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1048,265 +850,139 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1623,9 +1299,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1643,434 +1319,441 @@
     <col min="11" max="11" width="14.54296875" customWidth="1"/>
     <col min="12" max="12" width="13.36328125" customWidth="1"/>
     <col min="13" max="13" width="17.7265625" customWidth="1"/>
+    <col min="14" max="15" width="11.453125" customWidth="1"/>
     <col min="16" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="20.90625" customWidth="1"/>
     <col min="19" max="19" width="20.6328125" customWidth="1"/>
+    <col min="34" max="46" width="11.36328125" customWidth="1"/>
+    <col min="48" max="59" width="11.36328125" customWidth="1"/>
+    <col min="60" max="60" width="11.6328125" customWidth="1"/>
+    <col min="61" max="73" width="11.36328125" customWidth="1"/>
+    <col min="74" max="74" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:75" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="3" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="18"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="33"/>
     </row>
-    <row r="2" spans="1:74" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:75" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="69" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="59" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="48" t="s">
+      <c r="AA2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="50" t="s">
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="63" t="s">
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="63" t="s">
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BV2" s="66"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="45"/>
+      <c r="BV2" s="45"/>
     </row>
-    <row r="3" spans="1:74" s="36" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="21" t="s">
+    <row r="3" spans="1:75" s="5" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="23" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="26" t="s">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="29">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="11">
         <v>44927</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="11">
         <v>44958</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AJ3" s="11">
         <v>44986</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AK3" s="11">
         <v>45017</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3" s="11">
         <v>45047</v>
       </c>
-      <c r="AM3" s="30">
+      <c r="AM3" s="11">
         <v>45078</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3" s="11">
         <v>45108</v>
       </c>
-      <c r="AO3" s="30">
+      <c r="AO3" s="11">
         <v>45139</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3" s="11">
         <v>45170</v>
       </c>
-      <c r="AQ3" s="30">
+      <c r="AQ3" s="11">
         <v>45200</v>
       </c>
-      <c r="AR3" s="29">
+      <c r="AR3" s="11">
         <v>45231</v>
       </c>
-      <c r="AS3" s="37">
+      <c r="AS3" s="11">
         <v>45261</v>
       </c>
-      <c r="AT3" s="38" t="s">
+      <c r="AT3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="31">
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="6">
         <v>44927</v>
       </c>
-      <c r="AW3" s="32">
+      <c r="AW3" s="6">
         <v>44958</v>
       </c>
-      <c r="AX3" s="31">
+      <c r="AX3" s="6">
         <v>44986</v>
       </c>
-      <c r="AY3" s="32">
+      <c r="AY3" s="6">
         <v>45017</v>
       </c>
-      <c r="AZ3" s="31">
+      <c r="AZ3" s="6">
         <v>45047</v>
       </c>
-      <c r="BA3" s="32">
+      <c r="BA3" s="6">
         <v>45078</v>
       </c>
-      <c r="BB3" s="31">
+      <c r="BB3" s="6">
         <v>45108</v>
       </c>
-      <c r="BC3" s="32">
+      <c r="BC3" s="6">
         <v>45139</v>
       </c>
-      <c r="BD3" s="31">
+      <c r="BD3" s="6">
         <v>45170</v>
       </c>
-      <c r="BE3" s="32">
+      <c r="BE3" s="6">
         <v>45200</v>
       </c>
-      <c r="BF3" s="31">
+      <c r="BF3" s="6">
         <v>45231</v>
       </c>
-      <c r="BG3" s="32">
+      <c r="BG3" s="6">
         <v>45261</v>
       </c>
-      <c r="BH3" s="33" t="s">
+      <c r="BH3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="32">
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="34">
         <v>45292</v>
       </c>
-      <c r="BK3" s="32">
+      <c r="BK3" s="34">
         <v>45323</v>
       </c>
-      <c r="BL3" s="32">
+      <c r="BL3" s="34">
         <v>45352</v>
       </c>
-      <c r="BM3" s="32">
+      <c r="BM3" s="34">
         <v>45383</v>
       </c>
-      <c r="BN3" s="32">
+      <c r="BN3" s="34">
         <v>45413</v>
       </c>
-      <c r="BO3" s="32">
+      <c r="BO3" s="34">
         <v>45444</v>
       </c>
-      <c r="BP3" s="32">
+      <c r="BP3" s="34">
         <v>45474</v>
       </c>
-      <c r="BQ3" s="32">
+      <c r="BQ3" s="34">
         <v>45505</v>
       </c>
-      <c r="BR3" s="32">
+      <c r="BR3" s="34">
         <v>45536</v>
       </c>
-      <c r="BS3" s="32">
+      <c r="BS3" s="34">
         <v>45566</v>
       </c>
-      <c r="BT3" s="32">
+      <c r="BT3" s="34">
         <v>45597</v>
       </c>
-      <c r="BU3" s="32">
+      <c r="BU3" s="34">
         <v>45627</v>
       </c>
-      <c r="BV3" s="34" t="s">
+      <c r="BV3" s="35" t="s">
         <v>42</v>
       </c>
     </row>
